--- a/Mockup/Course1.xlsx
+++ b/Mockup/Course1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0362799-0EE3-42BF-AC11-DDDB179499A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967A826-CD9C-4198-90DB-4DA349C91F28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -553,17 +553,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -587,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -603,7 +603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -619,7 +619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -627,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -643,7 +643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -651,7 +651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -659,7 +659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -667,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -675,7 +675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -683,7 +683,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>58</v>
       </c>
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -707,7 +707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -715,7 +715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -723,7 +723,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -731,7 +731,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>41</v>
       </c>
@@ -739,7 +739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -755,7 +755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -763,7 +763,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>60</v>
       </c>
@@ -771,7 +771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -779,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>67</v>
       </c>
@@ -787,7 +787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
@@ -795,7 +795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -803,7 +803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -811,7 +811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -819,7 +819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
@@ -827,7 +827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
